--- a/lookup_pys/materials.xlsx
+++ b/lookup_pys/materials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2030_py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\E_Plus_2030_py\lookup_pys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B014F7CC-E60C-4FA1-B930-F115A0218F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFFD3C0-6AB4-4F8D-B219-DE20D32B16D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-43896" yWindow="-7836" windowWidth="19476" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
   <si>
     <t>Concrete_200mm</t>
   </si>
@@ -36,127 +36,277 @@
     <t>MediumRough</t>
   </si>
   <si>
-    <t>InsulationBoard_R2</t>
-  </si>
-  <si>
     <t>MATERIAL:NOMASS</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>obj_type</t>
-  </si>
-  <si>
-    <t>roughness</t>
-  </si>
-  <si>
-    <t>thickness_min</t>
-  </si>
-  <si>
-    <t>thickness_max</t>
-  </si>
-  <si>
-    <t>conductivity_min</t>
-  </si>
-  <si>
-    <t>conductivity_max</t>
-  </si>
-  <si>
-    <t>density_min</t>
-  </si>
-  <si>
-    <t>density_max</t>
-  </si>
-  <si>
-    <t>specific_heat_min</t>
-  </si>
-  <si>
-    <t>specific_heat_max</t>
-  </si>
-  <si>
-    <t>thermal_absorptance_min</t>
-  </si>
-  <si>
-    <t>thermal_absorptance_max</t>
-  </si>
-  <si>
-    <t>solar_absorptance_min</t>
-  </si>
-  <si>
-    <t>solar_absorptance_max</t>
-  </si>
-  <si>
-    <t>visible_absorptance_min</t>
-  </si>
-  <si>
-    <t>visible_absorptance_max</t>
-  </si>
-  <si>
-    <t>optical_data_type</t>
-  </si>
-  <si>
-    <t>solar_transmittance_min</t>
-  </si>
-  <si>
-    <t>solar_transmittance_max</t>
-  </si>
-  <si>
-    <t>front_solar_reflectance_min</t>
-  </si>
-  <si>
-    <t>front_solar_reflectance_max</t>
-  </si>
-  <si>
-    <t>back_solar_reflectance_min</t>
-  </si>
-  <si>
-    <t>back_solar_reflectance_max</t>
-  </si>
-  <si>
-    <t>visible_transmittance_min</t>
-  </si>
-  <si>
-    <t>visible_transmittance_max</t>
-  </si>
-  <si>
-    <t>front_visible_reflectance_min</t>
-  </si>
-  <si>
-    <t>front_visible_reflectance_max</t>
-  </si>
-  <si>
-    <t>back_visible_reflectance_min</t>
-  </si>
-  <si>
-    <t>back_visible_reflectance_max</t>
-  </si>
-  <si>
-    <t>ir_transmittance</t>
-  </si>
-  <si>
-    <t>front_ir_emissivity_min</t>
-  </si>
-  <si>
-    <t>front_ir_emissivity_max</t>
-  </si>
-  <si>
-    <t>back_ir_emissivity_min</t>
-  </si>
-  <si>
-    <t>back_ir_emissivity_max</t>
-  </si>
-  <si>
-    <t>dirt_correction_factor_min</t>
-  </si>
-  <si>
-    <t>dirt_correction_factor_max</t>
-  </si>
-  <si>
-    <t>solar_diffusing</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Obj Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Roughness</t>
+  </si>
+  <si>
+    <t>Thickness_range</t>
+  </si>
+  <si>
+    <t>Conductivity_range</t>
+  </si>
+  <si>
+    <t>Density_range</t>
+  </si>
+  <si>
+    <t>Specific_Heat_range</t>
+  </si>
+  <si>
+    <t>Thermal_Absorptance_range</t>
+  </si>
+  <si>
+    <t>Solar_Absorptance_range</t>
+  </si>
+  <si>
+    <t>Visible_Absorptance_range</t>
+  </si>
+  <si>
+    <t>Thermal_Resistance_range</t>
+  </si>
+  <si>
+    <t>Optical_Data_Type</t>
+  </si>
+  <si>
+    <t>Solar_Transmittance_range</t>
+  </si>
+  <si>
+    <t>Front_Solar_Reflectance_range</t>
+  </si>
+  <si>
+    <t>Back_Solar_Reflectance_range</t>
+  </si>
+  <si>
+    <t>Visible_Transmittance_range</t>
+  </si>
+  <si>
+    <t>Front_Visible_Reflectance_range</t>
+  </si>
+  <si>
+    <t>Back_Visible_Reflectance_range</t>
+  </si>
+  <si>
+    <t>IR_Transmittance</t>
+  </si>
+  <si>
+    <t>Front_IR_Emissivity_range</t>
+  </si>
+  <si>
+    <t>Back_IR_Emissivity_range</t>
+  </si>
+  <si>
+    <t>Dirt_Correction_Factor_range</t>
+  </si>
+  <si>
+    <t>Solar_Diffusing</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Not_Applicable</t>
+  </si>
+  <si>
+    <t>Placeholder for assemblies that have no relevant opaque or window material.</t>
+  </si>
+  <si>
+    <t>(0.195, 0.205)</t>
+  </si>
+  <si>
+    <t>(1.5, 1.7)</t>
+  </si>
+  <si>
+    <t>(2250, 2350)</t>
+  </si>
+  <si>
+    <t>(850, 950)</t>
+  </si>
+  <si>
+    <t>(0.9, 0.9)</t>
+  </si>
+  <si>
+    <t>(0.7, 0.7)</t>
+  </si>
+  <si>
+    <t>GroundContactFloor_Generic</t>
+  </si>
+  <si>
+    <t>(0.10, 0.12)</t>
+  </si>
+  <si>
+    <t>(1.0, 1.2)</t>
+  </si>
+  <si>
+    <t>(2100, 2300)</t>
+  </si>
+  <si>
+    <t>(850, 900)</t>
+  </si>
+  <si>
+    <t>InternalFloor_Generic</t>
+  </si>
+  <si>
+    <t>MediumSmooth</t>
+  </si>
+  <si>
+    <t>(0.12, 0.15)</t>
+  </si>
+  <si>
+    <t>(0.7, 1.2)</t>
+  </si>
+  <si>
+    <t>(1800, 2000)</t>
+  </si>
+  <si>
+    <t>(800, 900)</t>
+  </si>
+  <si>
+    <t>Insulated_Roof_R5</t>
+  </si>
+  <si>
+    <t>(4.0, 5.0)</t>
+  </si>
+  <si>
+    <t>InteriorWall_Generic</t>
+  </si>
+  <si>
+    <t>(0.10, 0.15)</t>
+  </si>
+  <si>
+    <t>(0.4, 0.6)</t>
+  </si>
+  <si>
+    <t>(700, 900)</t>
+  </si>
+  <si>
+    <t>(800, 1000)</t>
+  </si>
+  <si>
+    <t>DoorPanel_Range</t>
+  </si>
+  <si>
+    <t>(0.14, 0.25)</t>
+  </si>
+  <si>
+    <t>(1.4, 1.7)</t>
+  </si>
+  <si>
+    <t>(600, 700)</t>
+  </si>
+  <si>
+    <t>(2200, 2400)</t>
+  </si>
+  <si>
+    <t>Glazing_Clear_3mm</t>
+  </si>
+  <si>
+    <t>WINDOWMATERIAL:GLAZING</t>
+  </si>
+  <si>
+    <t>(0.003, 0.003)</t>
+  </si>
+  <si>
+    <t>(0.95, 1.05)</t>
+  </si>
+  <si>
+    <t>SpectralAverage</t>
+  </si>
+  <si>
+    <t>(0.76, 0.78)</t>
+  </si>
+  <si>
+    <t>(0.07, 0.08)</t>
+  </si>
+  <si>
+    <t>(0.86, 0.88)</t>
+  </si>
+  <si>
+    <t>(0.06, 0.07)</t>
+  </si>
+  <si>
+    <t>(0.84, 0.84)</t>
+  </si>
+  <si>
+    <t>(1.0, 1.0)</t>
+  </si>
+  <si>
+    <t>Glazing_Clear_3mm_Post</t>
+  </si>
+  <si>
+    <t>(0.75, 0.75)</t>
+  </si>
+  <si>
+    <t>(0.07, 0.07)</t>
+  </si>
+  <si>
+    <t>(0.85, 0.85)</t>
+  </si>
+  <si>
+    <t>DoorPanel_Range2</t>
+  </si>
+  <si>
+    <t>(0.04, 0.05)</t>
+  </si>
+  <si>
+    <t>(0.4, 0.5)</t>
+  </si>
+  <si>
+    <t>(1200, 1300)</t>
+  </si>
+  <si>
+    <t>Ceiling_Insulation_R3</t>
+  </si>
+  <si>
+    <t>(0.02, 0.03)</t>
+  </si>
+  <si>
+    <t>(0.035, 0.045)</t>
+  </si>
+  <si>
+    <t>(20, 25)</t>
+  </si>
+  <si>
+    <t>(1400, 1500)</t>
+  </si>
+  <si>
+    <t>Roof_Insulation_R5</t>
+  </si>
+  <si>
+    <t>(0.03, 0.04)</t>
+  </si>
+  <si>
+    <t>(25, 30)</t>
+  </si>
+  <si>
+    <t>AdiabaticWall_Generic</t>
+  </si>
+  <si>
+    <t>(0.15, 0.20)</t>
+  </si>
+  <si>
+    <t>(0.30, 0.40)</t>
+  </si>
+  <si>
+    <t>(200, 300)</t>
+  </si>
+  <si>
+    <t>(1000, 1100)</t>
   </si>
 </sst>
 </file>
@@ -200,13 +350,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,283 +641,744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2250</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2350</v>
-      </c>
-      <c r="J2" s="2">
-        <v>850</v>
-      </c>
-      <c r="K2" s="2">
-        <v>950</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
